--- a/Beneficient/test_FundSOI/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/test_FundSOI/PDFFileNameData/FileName.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_FundSOIElements_26_January_2022_11_48AM.pdf</t>
+          <t>test_FundSOIElements_11_March_2022_01_37PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -427,7 +427,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
